--- a/5/3/Moneda nacional 2004 a 2021 - Mensual.xlsx
+++ b/5/3/Moneda nacional 2004 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="225">
   <si>
     <t>Serie</t>
   </si>
@@ -686,6 +686,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1046,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q210"/>
+  <dimension ref="A1:Q211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12179,6 +12182,59 @@
         <v>10152</v>
       </c>
     </row>
+    <row r="211" spans="1:17">
+      <c r="A211" t="s">
+        <v>224</v>
+      </c>
+      <c r="B211">
+        <v>167616</v>
+      </c>
+      <c r="C211">
+        <v>851</v>
+      </c>
+      <c r="D211">
+        <v>723</v>
+      </c>
+      <c r="E211">
+        <v>72380</v>
+      </c>
+      <c r="F211">
+        <v>51978</v>
+      </c>
+      <c r="G211">
+        <v>343</v>
+      </c>
+      <c r="H211">
+        <v>20059</v>
+      </c>
+      <c r="I211">
+        <v>93662</v>
+      </c>
+      <c r="J211">
+        <v>23512</v>
+      </c>
+      <c r="K211">
+        <v>17706</v>
+      </c>
+      <c r="L211">
+        <v>850</v>
+      </c>
+      <c r="M211">
+        <v>16856</v>
+      </c>
+      <c r="N211">
+        <v>41938</v>
+      </c>
+      <c r="O211">
+        <v>38034</v>
+      </c>
+      <c r="P211">
+        <v>3904</v>
+      </c>
+      <c r="Q211">
+        <v>10506</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/3/Moneda nacional 2004 a 2021 - Mensual.xlsx
+++ b/5/3/Moneda nacional 2004 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="226">
   <si>
     <t>Serie</t>
   </si>
@@ -689,6 +689,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1049,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q211"/>
+  <dimension ref="A1:Q212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12235,6 +12238,59 @@
         <v>10506</v>
       </c>
     </row>
+    <row r="212" spans="1:17">
+      <c r="A212" t="s">
+        <v>225</v>
+      </c>
+      <c r="B212">
+        <v>168163</v>
+      </c>
+      <c r="C212">
+        <v>623</v>
+      </c>
+      <c r="D212">
+        <v>688</v>
+      </c>
+      <c r="E212">
+        <v>72919</v>
+      </c>
+      <c r="F212">
+        <v>52533</v>
+      </c>
+      <c r="G212">
+        <v>343</v>
+      </c>
+      <c r="H212">
+        <v>20043</v>
+      </c>
+      <c r="I212">
+        <v>93932</v>
+      </c>
+      <c r="J212">
+        <v>25386</v>
+      </c>
+      <c r="K212">
+        <v>16407</v>
+      </c>
+      <c r="L212">
+        <v>735</v>
+      </c>
+      <c r="M212">
+        <v>15672</v>
+      </c>
+      <c r="N212">
+        <v>41355</v>
+      </c>
+      <c r="O212">
+        <v>37554</v>
+      </c>
+      <c r="P212">
+        <v>3801</v>
+      </c>
+      <c r="Q212">
+        <v>10784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/3/Moneda nacional 2004 a 2021 - Mensual.xlsx
+++ b/5/3/Moneda nacional 2004 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="227">
   <si>
     <t>Serie</t>
   </si>
@@ -692,6 +692,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q212"/>
+  <dimension ref="A1:Q213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12291,6 +12294,59 @@
         <v>10784</v>
       </c>
     </row>
+    <row r="213" spans="1:17">
+      <c r="A213" t="s">
+        <v>226</v>
+      </c>
+      <c r="B213">
+        <v>167337</v>
+      </c>
+      <c r="C213">
+        <v>674</v>
+      </c>
+      <c r="D213">
+        <v>692</v>
+      </c>
+      <c r="E213">
+        <v>72585</v>
+      </c>
+      <c r="F213">
+        <v>52759</v>
+      </c>
+      <c r="G213">
+        <v>334</v>
+      </c>
+      <c r="H213">
+        <v>19492</v>
+      </c>
+      <c r="I213">
+        <v>93386</v>
+      </c>
+      <c r="J213">
+        <v>26007</v>
+      </c>
+      <c r="K213">
+        <v>15711</v>
+      </c>
+      <c r="L213">
+        <v>722</v>
+      </c>
+      <c r="M213">
+        <v>14988</v>
+      </c>
+      <c r="N213">
+        <v>40634</v>
+      </c>
+      <c r="O213">
+        <v>36840</v>
+      </c>
+      <c r="P213">
+        <v>3794</v>
+      </c>
+      <c r="Q213">
+        <v>11034</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
